--- a/survey_plots/Skill Scanner Evaluation (Antwoorden).xlsx
+++ b/survey_plots/Skill Scanner Evaluation (Antwoorden).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -257,6 +257,21 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Leader and Researcher</t>
+  </si>
+  <si>
+    <t>Too short a view to understand it... in particular the stakeholders' concept is much too abstact.</t>
+  </si>
+  <si>
+    <t>let's try it...</t>
+  </si>
+  <si>
+    <t>Drop is ok. Job should be muuuuuuch more detailed (to a particular ad?). Result (and warnign about time delivery) should just be an empty zone after the upload has happened.</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1187,6 +1202,180 @@
         <v>81</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>44526.96961641204</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AQ10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="AS10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>44532.081219733795</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>44536.71321696759</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="AS12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="AW12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
